--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>int#ref=TbResource</t>
+  </si>
+  <si>
+    <t>int#ref=TbResource?</t>
   </si>
   <si>
     <t>EBindPointType</t>
@@ -1033,15 +1039,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="11.3035714285714" customWidth="1"/>
     <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
-    <col min="5" max="5" width="9.78571428571429" customWidth="1"/>
+    <col min="4" max="4" width="19.9285714285714" customWidth="1"/>
+    <col min="5" max="5" width="21.0714285714286" customWidth="1"/>
     <col min="6" max="6" width="16.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,33 +1082,33 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1111,14 +1117,14 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>20000248</v>
+        <v>21000001</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1127,14 +1133,14 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>20000248</v>
+        <v>21000002</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1120,7 +1120,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3">
-        <v>21000001</v>
+        <v>80010001</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -1136,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="3">
-        <v>21000002</v>
+        <v>80010002</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">

--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>远程植物攻击特效</t>
+  </si>
+  <si>
+    <t>加血特效</t>
+  </si>
+  <si>
+    <t>加蓝特效</t>
   </si>
 </sst>
 </file>
@@ -1036,15 +1042,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="11.3035714285714" customWidth="1"/>
+    <col min="1" max="1" width="11.3035714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="19.9285714285714" customWidth="1"/>
     <col min="5" max="5" width="21.0714285714286" customWidth="1"/>
@@ -1119,7 +1126,7 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>80010001</v>
       </c>
       <c r="E4" s="3"/>
@@ -1135,11 +1142,39 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>80010002</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>70000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>70000001</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>70000002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>70000002</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>挂点类型</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>防御塔攻击特效</t>
@@ -710,11 +716,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1042,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.3035714285714" customWidth="1"/>
     <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
@@ -1119,63 +1128,79 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
-        <v>80010001</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>80010001</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
         <v>80010002</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6">
-        <v>70000001</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D6">
-        <v>70000001</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7">
+        <v>70000001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>70000001</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8">
         <v>70000002</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
         <v>70000002</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -13,8 +13,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>stone:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+        None = 0,
+        Head = 1,   // 头部
+        Chest = 2,  // 胸部
+        LHand = 3,  // 左手
+        RHand = 4,  // 右手
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +68,7 @@
     <t>sound_id</t>
   </si>
   <si>
-    <t>bind_point_type</t>
+    <t>attach_point</t>
   </si>
   <si>
     <t>##type</t>
@@ -49,9 +86,6 @@
     <t>int#ref=TbResource?</t>
   </si>
   <si>
-    <t>EBindPointType</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -77,9 +111,6 @@
   </si>
   <si>
     <t>防御塔攻击特效</t>
-  </si>
-  <si>
-    <t>受击点</t>
   </si>
   <si>
     <t>远程植物攻击特效</t>
@@ -101,7 +132,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +289,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1054,7 +1096,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1104,43 +1146,43 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1149,14 +1191,14 @@
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>80010001</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
+      <c r="F5" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1165,14 +1207,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>80010002</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>21</v>
+      <c r="F6" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1180,13 +1222,13 @@
         <v>70000001</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>70000001</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
+      <c r="F7" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1194,17 +1236,18 @@
         <v>70000002</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>70000002</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
+      <c r="F8" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/SkillResource.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -110,16 +110,40 @@
     <t>c</t>
   </si>
   <si>
-    <t>防御塔攻击特效</t>
-  </si>
-  <si>
-    <t>远程植物攻击特效</t>
-  </si>
-  <si>
     <t>加血特效</t>
   </si>
   <si>
     <t>加蓝特效</t>
+  </si>
+  <si>
+    <t>BulletRed</t>
+  </si>
+  <si>
+    <t>BulletBlue</t>
+  </si>
+  <si>
+    <t>BulletCircle</t>
+  </si>
+  <si>
+    <t>BulletFlower4</t>
+  </si>
+  <si>
+    <t>BulletFlower5</t>
+  </si>
+  <si>
+    <t>BulletHexagon</t>
+  </si>
+  <si>
+    <t>BulletSnowflake</t>
+  </si>
+  <si>
+    <t>BulletSquare</t>
+  </si>
+  <si>
+    <t>BulletStar</t>
+  </si>
+  <si>
+    <t>BulletTriangle</t>
   </si>
 </sst>
 </file>
@@ -768,10 +792,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1093,17 +1117,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.3035714285714" customWidth="1"/>
     <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="19.9285714285714" customWidth="1"/>
     <col min="5" max="5" width="21.0714285714286" customWidth="1"/>
     <col min="6" max="6" width="16.2142857142857" customWidth="1"/>
@@ -1185,63 +1209,171 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="3">
+        <v>70000001</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5">
+        <v>70000001</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>70000002</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3">
         <v>80010001</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>80010002</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
-        <v>70000001</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>70000001</v>
-      </c>
-      <c r="F7" s="4">
+        <v>80010001</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8">
-        <v>70000002</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3">
+        <v>80010002</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8">
-        <v>70000002</v>
-      </c>
-      <c r="F8" s="4">
+        <v>80010002</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="3">
+        <v>80020001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>80020001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3">
+        <v>80020002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>80020002</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3">
+        <v>80020003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>80020003</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="3">
+        <v>80020004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>80020004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3">
+        <v>80020005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>80020005</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3">
+        <v>80020006</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>80020006</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3">
+        <v>80020007</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>80020007</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3">
+        <v>80020008</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>80020008</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
     </row>
